--- a/table/ regression:table.xlsx
+++ b/table/ regression:table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Documents/01_Studium/00_INRM/05_MaThesis/MaThesisWriting/table/ regression:"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{500B7E06-B3EE-F840-97F0-F6078D30D1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9AA05E-0BCB-1D4C-AE05-02D122194FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27460" yWindow="2340" windowWidth="19300" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1340" yWindow="2340" windowWidth="19300" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regression_table" sheetId="1" r:id="rId1"/>
@@ -187,12 +187,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="7">
@@ -261,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -291,6 +297,9 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -592,7 +601,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,7 +711,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -742,7 +751,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -782,7 +791,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
@@ -822,7 +831,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
